--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunipaderbornde-my.sharepoint.com/personal/chschaef_mail_uni-paderborn_de/Documents/Studium/Master/4. Semester/Master thesis/repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="11_AD4DB114E441178AC67DF47A1E96CFBE693EDF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94C550B5-2EA7-41BB-8E53-440E560DA940}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="11_AD4DB114E441178AC67DF47A1E96CFBE693EDF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D87AE1AF-70C3-473E-9102-0DA8979BEF57}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -283,34 +283,34 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,31 +621,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="22" t="s">
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
     </row>
     <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -716,14 +716,41 @@
       <c r="E3" s="8">
         <v>1000</v>
       </c>
+      <c r="F3" s="8">
+        <v>1.8585000000000001E-2</v>
+      </c>
+      <c r="G3" s="8">
+        <v>123.25945299999999</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1.4371999999999999E-2</v>
+      </c>
       <c r="I3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="9">
         <v>1000</v>
       </c>
+      <c r="K3" s="9">
+        <v>2.0653000000000001E-2</v>
+      </c>
+      <c r="L3" s="9">
+        <v>123.334343</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1.7398E-2</v>
+      </c>
       <c r="N3" s="6">
         <v>5000</v>
+      </c>
+      <c r="O3" s="6">
+        <v>2.0920999999999999E-2</v>
+      </c>
+      <c r="P3" s="6">
+        <v>123.322998</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>1.5885E-2</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunipaderbornde-my.sharepoint.com/personal/chschaef_mail_uni-paderborn_de/Documents/Studium/Master/4. Semester/Master thesis/repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="11_AD4DB114E441178AC67DF47A1E96CFBE693EDF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D87AE1AF-70C3-473E-9102-0DA8979BEF57}"/>
+  <xr:revisionPtr revIDLastSave="322" documentId="11_AD4DB114E441178AC67DF47A1E96CFBE693EDF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01E92341-4266-4C83-9F34-7831EC64A6D2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -73,13 +73,73 @@
   </si>
   <si>
     <t>UMLS</t>
+  </si>
+  <si>
+    <t>TransD</t>
+  </si>
+  <si>
+    <t>ComplEx</t>
+  </si>
+  <si>
+    <t>KBGAN (TransE + DistMult)</t>
+  </si>
+  <si>
+    <t>KBGAN (TransE + ComplEx)</t>
+  </si>
+  <si>
+    <t>KBGAN (TransD + DistMult)</t>
+  </si>
+  <si>
+    <t>KBGAN (TransD + ComplEx)</t>
+  </si>
+  <si>
+    <t>TransE (pre-trained)</t>
+  </si>
+  <si>
+    <t>TransD (pre-trained)</t>
+  </si>
+  <si>
+    <t>My results</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>epochs:</t>
+  </si>
+  <si>
+    <t>mini-batches:</t>
+  </si>
+  <si>
+    <t>validation:</t>
+  </si>
+  <si>
+    <t>every 50 epochs</t>
+  </si>
+  <si>
+    <t>tried:</t>
+  </si>
+  <si>
+    <t>MRR</t>
+  </si>
+  <si>
+    <t>H@10</t>
+  </si>
+  <si>
+    <t>FB15k-237</t>
+  </si>
+  <si>
+    <t>WN18RR</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +159,15 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -184,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -264,11 +333,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -313,6 +469,68 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -328,6 +546,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>22859</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>664503</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C37612B3-DFDD-49C4-B325-F1F3B6EFE32C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8077199" y="45720"/>
+          <a:ext cx="6030889" cy="2575560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>54668</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F45D30E4-5831-42E5-8C5D-998FD8D5D686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11285220" y="2819400"/>
+          <a:ext cx="2973128" cy="214555"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>506731</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>141436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D24A07B-926D-437A-BB8C-90A9E441BFCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11338561" y="3078480"/>
+          <a:ext cx="1219200" cy="200491"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -593,16 +948,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="24" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
@@ -612,7 +967,7 @@
     <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="6" customWidth="1"/>
     <col min="15" max="15" width="10.44140625" style="6" customWidth="1"/>
@@ -620,147 +975,542 @@
     <col min="17" max="17" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+    </row>
+    <row r="2" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="36"/>
+      <c r="B2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+    </row>
+    <row r="3" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+    </row>
+    <row r="4" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="42"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+    </row>
+    <row r="5" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="42"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+    </row>
+    <row r="6" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+    </row>
+    <row r="7" spans="1:17" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+    </row>
+    <row r="8" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14">
+        <v>1000</v>
+      </c>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+    </row>
+    <row r="18" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="19" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="16" t="s">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="14" t="s">
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I19" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N19" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P19" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q19" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>44517</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E20" s="8">
         <v>1000</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F20" s="8">
         <v>1.8585000000000001E-2</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G20" s="8">
         <v>123.25945299999999</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H20" s="8">
         <v>1.4371999999999999E-2</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J20" s="9">
         <v>1000</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K20" s="9">
         <v>2.0653000000000001E-2</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L20" s="9">
         <v>123.334343</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M20" s="9">
         <v>1.7398E-2</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N20" s="6">
         <v>5000</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O20" s="6">
         <v>2.0920999999999999E-2</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P20" s="6">
         <v>123.322998</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q20" s="7">
         <v>1.5885E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="7">
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunipaderbornde-my.sharepoint.com/personal/chschaef_mail_uni-paderborn_de/Documents/Studium/Master/4. Semester/Master thesis/repository/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive\OneDrive - mail.uni-paderborn.de\Studium\Master\4. Semester\Master thesis\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="322" documentId="11_AD4DB114E441178AC67DF47A1E96CFBE693EDF24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01E92341-4266-4C83-9F34-7831EC64A6D2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97D90E0-9EF2-4584-A98F-F1FAEA670405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>2022.02.06.115931_gan_train_distmult_transe_wn18rr</t>
+  </si>
+  <si>
+    <t>Uncertainty Sampling Entropy Max Distribution</t>
   </si>
 </sst>
 </file>
@@ -439,50 +445,11 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -530,6 +497,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -948,16 +954,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
@@ -976,169 +982,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
       <c r="K2"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="1:17" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="39" t="s">
+      <c r="E4" s="27"/>
+      <c r="F4" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
     </row>
     <row r="5" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="39" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="1:17" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -1151,15 +1157,15 @@
       <c r="Q7"/>
     </row>
     <row r="8" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -1172,15 +1178,15 @@
       <c r="Q8"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -1193,15 +1199,15 @@
       <c r="Q9"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -1214,15 +1220,15 @@
       <c r="Q10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -1235,15 +1241,15 @@
       <c r="Q11"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -1256,15 +1262,15 @@
       <c r="Q12"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
@@ -1289,7 +1295,7 @@
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="14" t="s">
         <v>26</v>
       </c>
       <c r="L14">
@@ -1347,7 +1353,7 @@
       <c r="P16"/>
       <c r="Q16"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -1366,34 +1372,34 @@
       <c r="P17"/>
       <c r="Q17"/>
     </row>
-    <row r="18" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="22" t="s">
+    <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="19" t="s">
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="16" t="s">
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="14" t="s">
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-    </row>
-    <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+    </row>
+    <row r="19" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1446,7 +1452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>44517</v>
       </c>
@@ -1497,6 +1503,26 @@
       </c>
       <c r="Q20" s="7">
         <v>1.5885E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>44598</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
